--- a/DataRepo/data/tests/small_obob/small_obob_maven_6eaas_serum/small_obob_sample_table_serum_only.xlsx
+++ b/DataRepo/data/tests/small_obob/small_obob_maven_6eaas_serum/small_obob_sample_table_serum_only.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-LOCAL/TRACEBASE/tracebase/DataRepo/data/tests/small_obob/small_obob_maven_6eaas_serum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304EF6AD-5275-5E4B-8270-8323BA5EBC22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A573ED-5063-E143-87D9-78F946CD111D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2500" yWindow="3920" windowWidth="30580" windowHeight="15020" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2500" yWindow="3920" windowWidth="30580" windowHeight="15020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="1" r:id="rId1"/>
@@ -3594,7 +3594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -5015,8 +5015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/DataRepo/data/tests/small_obob/small_obob_maven_6eaas_serum/small_obob_sample_table_serum_only.xlsx
+++ b/DataRepo/data/tests/small_obob/small_obob_maven_6eaas_serum/small_obob_sample_table_serum_only.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10201"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-LOCAL/TRACEBASE/tracebase/DataRepo/data/tests/small_obob/small_obob_maven_6eaas_serum/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-local/TRACEBASE/tracebase/DataRepo/data/tests/small_obob/small_obob_maven_6eaas_serum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A573ED-5063-E143-87D9-78F946CD111D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5890C4F-ABCF-8C4A-B313-C0683D93F587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2500" yWindow="3920" windowWidth="30580" windowHeight="15020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2500" yWindow="3920" windowWidth="30580" windowHeight="15020" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="1" r:id="rId1"/>
@@ -98,15 +98,81 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Courier"/>
-            <family val="2"/>
-          </rPr>
-          <t>Unique name of the protocol.
-The values in this column are referenced by the 'Treatment' column in the
-'Animals' sheet.
-Must be unique.
-Required.</t>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Unique name of the protocol.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">The values in this column are referenced by the 'Treatment' column in the
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">'Animals' sheet.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Must be unique.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t>Required.</t>
         </r>
       </text>
     </comment>
@@ -1573,7 +1639,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="221">
   <si>
     <t>Name</t>
   </si>
@@ -2233,13 +2299,16 @@
   </si>
   <si>
     <t>Fasted</t>
+  </si>
+  <si>
+    <t>ob/ob homozygous mice were fasted</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2266,6 +2335,13 @@
       <color rgb="FF000000"/>
       <name val="Courier"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2324,13 +2400,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3552,13 +3629,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="84.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3566,7 +3643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>214</v>
       </c>
@@ -3592,19 +3669,17 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="42.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="191.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>65</v>
       </c>
@@ -3612,7 +3687,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>67</v>
       </c>
@@ -3620,7 +3695,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>68</v>
       </c>
@@ -3628,7 +3703,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>69</v>
       </c>
@@ -3636,7 +3711,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -3644,7 +3719,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>71</v>
       </c>
@@ -3652,7 +3727,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>72</v>
       </c>
@@ -3660,7 +3735,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>73</v>
       </c>
@@ -3668,7 +3743,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>74</v>
       </c>
@@ -3676,7 +3751,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>75</v>
       </c>
@@ -3684,7 +3759,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>76</v>
       </c>
@@ -3692,7 +3767,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>77</v>
       </c>
@@ -3700,7 +3775,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>78</v>
       </c>
@@ -3708,7 +3783,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>79</v>
       </c>
@@ -3716,7 +3791,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>80</v>
       </c>
@@ -3724,7 +3799,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>81</v>
       </c>
@@ -3732,7 +3807,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>82</v>
       </c>
@@ -3740,12 +3815,20 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>83</v>
       </c>
       <c r="B18" t="s">
         <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>214</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -3772,13 +3855,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="60.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -3786,7 +3869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>100</v>
       </c>
@@ -3794,7 +3877,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>101</v>
       </c>
@@ -3802,7 +3885,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -3810,7 +3893,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -3818,7 +3901,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>104</v>
       </c>
@@ -3826,7 +3909,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>105</v>
       </c>
@@ -3834,7 +3917,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -3842,7 +3925,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>107</v>
       </c>
@@ -3850,7 +3933,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>108</v>
       </c>
@@ -3858,7 +3941,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>109</v>
       </c>
@@ -3866,7 +3949,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>110</v>
       </c>
@@ -3874,7 +3957,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>111</v>
       </c>
@@ -3882,7 +3965,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>112</v>
       </c>
@@ -3890,7 +3973,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>113</v>
       </c>
@@ -3898,7 +3981,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>114</v>
       </c>
@@ -3906,7 +3989,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>115</v>
       </c>
@@ -3914,7 +3997,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>116</v>
       </c>
@@ -3922,7 +4005,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>117</v>
       </c>
@@ -3930,7 +4013,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>118</v>
       </c>
@@ -3938,7 +4021,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>119</v>
       </c>
@@ -3946,7 +4029,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>120</v>
       </c>
@@ -3954,7 +4037,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>121</v>
       </c>
@@ -3962,7 +4045,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>122</v>
       </c>
@@ -3970,7 +4053,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>123</v>
       </c>
@@ -3978,7 +4061,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>124</v>
       </c>
@@ -3986,7 +4069,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>125</v>
       </c>
@@ -3994,7 +4077,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>126</v>
       </c>
@@ -4002,7 +4085,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>127</v>
       </c>
@@ -4010,7 +4093,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>128</v>
       </c>
@@ -4018,7 +4101,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>129</v>
       </c>
@@ -4026,7 +4109,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>130</v>
       </c>
@@ -4034,7 +4117,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>131</v>
       </c>
@@ -4042,7 +4125,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>132</v>
       </c>
@@ -4050,7 +4133,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>133</v>
       </c>
@@ -4058,7 +4141,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>134</v>
       </c>
@@ -4066,7 +4149,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>135</v>
       </c>
@@ -4074,7 +4157,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>136</v>
       </c>
@@ -4082,7 +4165,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>137</v>
       </c>
@@ -4090,7 +4173,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>138</v>
       </c>
@@ -4098,7 +4181,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>139</v>
       </c>
@@ -4106,7 +4189,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>140</v>
       </c>
@@ -4114,7 +4197,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>141</v>
       </c>
@@ -4122,7 +4205,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>142</v>
       </c>
@@ -4130,7 +4213,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>143</v>
       </c>
@@ -4138,7 +4221,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>144</v>
       </c>
@@ -4165,7 +4248,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
@@ -4173,7 +4256,7 @@
     <col min="4" max="4" width="68.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -4187,7 +4270,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -4201,7 +4284,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -4215,7 +4298,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -4229,7 +4312,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>175</v>
       </c>
@@ -4243,7 +4326,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>176</v>
       </c>
@@ -4257,7 +4340,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>177</v>
       </c>
@@ -4271,7 +4354,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>178</v>
       </c>
@@ -4285,7 +4368,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>179</v>
       </c>
@@ -4299,7 +4382,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>180</v>
       </c>
@@ -4337,7 +4420,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="37.5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.5" bestFit="1" customWidth="1"/>
@@ -4345,7 +4428,7 @@
     <col min="4" max="4" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4359,7 +4442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>202</v>
       </c>
@@ -4373,7 +4456,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>45</v>
       </c>
@@ -4387,7 +4470,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
         <v>203</v>
       </c>
@@ -4401,7 +4484,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
         <v>204</v>
       </c>
@@ -4415,7 +4498,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
         <v>46</v>
       </c>
@@ -4426,121 +4509,121 @@
         <v>213</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="2" t="str">
         <f t="shared" ref="A7:A26" ca="1" si="0">IF(OR(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-",INDIRECT("C" &amp; ROW()),"-min"))</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1">
       <c r="A20" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1">
       <c r="A21" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1">
       <c r="A22" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1">
       <c r="A23" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1">
       <c r="A24" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1">
       <c r="A25" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1">
       <c r="A26" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -4588,7 +4671,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
@@ -4599,7 +4682,7 @@
     <col min="7" max="7" width="17.5" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4622,7 +4705,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4642,121 +4725,121 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="G3" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G3" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="G4" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G4" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="G5" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G5" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="G6" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G6" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="G7" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G7" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="G8" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G8" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="G9" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G9" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="G10" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G10" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="G11" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G11" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="G12" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G12" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="G13" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G13" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="G14" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G14" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="G15" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G15" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="G16" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G16" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="7:7">
       <c r="G17" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G17" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="7:7">
       <c r="G18" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G18" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="7:7">
       <c r="G19" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G19" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="7:7">
       <c r="G20" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G20" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="7:7">
       <c r="G21" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G21" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="7:7">
       <c r="G22" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G22" ca="1">IF(AND(ISBLANK(INDIRECT("B" &amp; ROW())),ISBLANK(INDIRECT("C" &amp; ROW())),ISBLANK(INDIRECT("D" &amp; ROW())),ISBLANK(INDIRECT("E" &amp; ROW())),ISBLANK(INDIRECT("F" &amp; ROW())),ISBLANK(INDIRECT("A" &amp; ROW()))),"",CONCATENATE(INDIRECT("B" &amp; ROW()),"-[",_xlfn.TEXTJOIN(",",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(E:E,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn._xlws.FILTER(F:F,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.mass,_xlpm.elem,_xlpm.cnt,_xlpm.poss, CONCATENATE(IF(ISBLANK(_xlpm.poss),"",_xlpm.poss), IF(ISBLANK(_xlpm.poss),"","-"), _xlpm.mass, _xlpm.elem, _xlpm.cnt))))),"]"))</f>
         <v/>
@@ -4808,7 +4891,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
@@ -4817,7 +4900,7 @@
     <col min="5" max="5" width="38.1640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -4834,7 +4917,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4848,121 +4931,121 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="E3" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="E3" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="E4" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="E4" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="E5" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="E5" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="E6" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="E6" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="E7" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="E7" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="E8" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="E8" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="E9" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="E9" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="E10" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="E10" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="E11" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="E11" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="E12" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="E12" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="E13" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="E13" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="E14" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="E14" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="E15" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="E15" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="E16" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="E16" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="5:5">
       <c r="E17" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="E17" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="5:5">
       <c r="E18" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="E18" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="5:5">
       <c r="E19" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="E19" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="5:5">
       <c r="E20" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="E20" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="5:5">
       <c r="E21" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="E21" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="5:5">
       <c r="E22" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="E22" ca="1">IF(OR(NOT(ISBLANK(INDIRECT("A" &amp; ROW()))),NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),),CONCATENATE(IF(ISBLANK(INDIRECT("B" &amp; ROW())),"",CONCATENATE(INDIRECT("B" &amp; ROW())," ")),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"{",""),_xlfn.TEXTJOIN(";",TRUE,_xlfn._xlws.SORT(_xlfn.MAP(_xlfn._xlws.FILTER(C:C,A:A=INDIRECT("A" &amp; ROW()),""),_xlfn._xlws.FILTER(D:D,A:A=INDIRECT("A" &amp; ROW()), ""),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,CONCATENATE(_xlpm.a,"[",_xlpm.b,"]"))))),IF(ROWS(_xlfn._xlws.FILTER(A:A,A:A=INDIRECT("A" &amp; ROW()),""))&gt;1,"}","")),"")</f>
         <v/>
@@ -5015,11 +5098,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.1640625" bestFit="1" customWidth="1"/>
@@ -5030,11 +5113,10 @@
     <col min="7" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -5069,7 +5151,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>971</v>
       </c>
@@ -5087,6 +5169,9 @@
       </c>
       <c r="I2" t="s">
         <v>219</v>
+      </c>
+      <c r="J2" t="s">
+        <v>214</v>
       </c>
       <c r="K2" t="s">
         <v>214</v>
@@ -5169,7 +5254,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
@@ -5179,7 +5264,7 @@
     <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
@@ -5199,7 +5284,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -5271,7 +5356,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="47.5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
@@ -5281,7 +5366,7 @@
     <col min="6" max="6" width="5.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
@@ -5301,7 +5386,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="str">
         <f t="shared" ref="A2:A22" ca="1" si="0">IF(OR(NOT(ISBLANK(INDIRECT("B" &amp; ROW()))),NOT(ISBLANK(INDIRECT("C" &amp; ROW()))),NOT(ISBLANK(INDIRECT("D" &amp; ROW()))),NOT(ISBLANK(INDIRECT("E" &amp; ROW()))),),_xlfn.TEXTJOIN(", ", FALSE, INDIRECT("B" &amp; ROW()), INDIRECT("C" &amp; ROW()), INDIRECT("D" &amp; ROW()), IF(ISBLANK(INDIRECT("E" &amp; ROW())),"",TEXT(INDIRECT("E" &amp; ROW()),"yyyy-mm-dd"))),"")</f>
         <v>Michael Neinast, polar-HILIC-25-min, unknown, 2021-06-03</v>
@@ -5319,121 +5404,121 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1">
       <c r="A20" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1">
       <c r="A21" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1">
       <c r="A22" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -5488,14 +5573,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
@@ -5506,7 +5591,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -5563,7 +5648,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1"/>
@@ -5573,7 +5658,7 @@
     <col min="6" max="6" width="4.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>54</v>
       </c>
@@ -5593,7 +5678,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -5660,7 +5745,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.5" bestFit="1" customWidth="1"/>
@@ -5669,7 +5754,7 @@
     <col min="5" max="5" width="15.33203125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>60</v>
       </c>
